--- a/www/IndicatorsPerCountry/Spain_TotalPopulation_TerritorialRef_1946_2012_CCode_724.xlsx
+++ b/www/IndicatorsPerCountry/Spain_TotalPopulation_TerritorialRef_1946_2012_CCode_724.xlsx
@@ -141,13 +141,13 @@
     <t>Fink-Jensen, Jonathan (2015). Total Population. http://hdl.handle.net/10622/SNETZV, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_SNETZV.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_SNETZV.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_SNETZV.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_SNETZV.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_SNETZV.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_SNETZV.bib</t>
   </si>
 </sst>
 </file>
